--- a/data/xlsx/profiles_rating.xlsx
+++ b/data/xlsx/profiles_rating.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Trial\Mechine Learning\data\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79F950F7-738C-4AEB-ABC8-77656C7D293A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="9324"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="profiles" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2174" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2164" uniqueCount="116">
   <si>
     <t>id</t>
   </si>
@@ -301,9 +302,6 @@
   </si>
   <si>
     <t>["menghilangkan_jerawat","menghidrasi","perlindungan_matahari"]</t>
-  </si>
-  <si>
-    <t>Anita</t>
   </si>
   <si>
     <t>Mesya Angeliqa Hutagalung</t>
@@ -375,7 +373,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1214,32 +1212,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N217"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="A204" workbookViewId="0">
+      <selection activeCell="L217" sqref="L217"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.44140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.21875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="1"/>
-    <col min="8" max="8" width="14.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" style="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" customWidth="1"/>
     <col min="10" max="10" width="18" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="27.77734375" style="2" customWidth="1"/>
-    <col min="13" max="13" width="21.109375" style="2" customWidth="1"/>
-    <col min="14" max="14" width="115.21875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="27.7109375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="21.140625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="115.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1283,7 +1281,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>6</v>
       </c>
@@ -1327,7 +1325,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>6</v>
       </c>
@@ -1371,7 +1369,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>6</v>
       </c>
@@ -1415,7 +1413,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>6</v>
       </c>
@@ -1459,7 +1457,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>6</v>
       </c>
@@ -1503,7 +1501,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -1547,7 +1545,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>6</v>
       </c>
@@ -1591,7 +1589,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>6</v>
       </c>
@@ -1635,7 +1633,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>6</v>
       </c>
@@ -1679,7 +1677,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>6</v>
       </c>
@@ -1723,7 +1721,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>6</v>
       </c>
@@ -1767,7 +1765,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>6</v>
       </c>
@@ -1811,7 +1809,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>6</v>
       </c>
@@ -1855,7 +1853,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>6</v>
       </c>
@@ -1899,7 +1897,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>6</v>
       </c>
@@ -1943,7 +1941,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>6</v>
       </c>
@@ -1987,7 +1985,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>6</v>
       </c>
@@ -2031,7 +2029,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>6</v>
       </c>
@@ -2075,7 +2073,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>6</v>
       </c>
@@ -2119,7 +2117,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>6</v>
       </c>
@@ -2163,7 +2161,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>6</v>
       </c>
@@ -2207,7 +2205,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>6</v>
       </c>
@@ -2251,7 +2249,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>6</v>
       </c>
@@ -2295,7 +2293,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>6</v>
       </c>
@@ -2339,7 +2337,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>7</v>
       </c>
@@ -2383,7 +2381,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>7</v>
       </c>
@@ -2427,7 +2425,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>7</v>
       </c>
@@ -2471,7 +2469,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>10</v>
       </c>
@@ -2515,7 +2513,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>10</v>
       </c>
@@ -2559,7 +2557,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>11</v>
       </c>
@@ -2603,7 +2601,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>11</v>
       </c>
@@ -2647,7 +2645,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>11</v>
       </c>
@@ -2691,7 +2689,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>11</v>
       </c>
@@ -2735,7 +2733,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>11</v>
       </c>
@@ -2779,7 +2777,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>11</v>
       </c>
@@ -2823,7 +2821,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <v>11</v>
       </c>
@@ -2867,7 +2865,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>11</v>
       </c>
@@ -2911,7 +2909,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>11</v>
       </c>
@@ -2955,7 +2953,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>11</v>
       </c>
@@ -2999,7 +2997,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <v>11</v>
       </c>
@@ -3043,7 +3041,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>11</v>
       </c>
@@ -3087,7 +3085,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <v>12</v>
       </c>
@@ -3131,7 +3129,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>12</v>
       </c>
@@ -3175,7 +3173,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>12</v>
       </c>
@@ -3219,7 +3217,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <v>12</v>
       </c>
@@ -3263,7 +3261,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
         <v>12</v>
       </c>
@@ -3307,7 +3305,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
         <v>12</v>
       </c>
@@ -3351,7 +3349,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
         <v>12</v>
       </c>
@@ -3395,7 +3393,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
         <v>13</v>
       </c>
@@ -3439,7 +3437,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
         <v>13</v>
       </c>
@@ -3483,7 +3481,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
         <v>13</v>
       </c>
@@ -3527,7 +3525,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
         <v>13</v>
       </c>
@@ -3571,7 +3569,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
         <v>13</v>
       </c>
@@ -3615,7 +3613,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
         <v>13</v>
       </c>
@@ -3659,7 +3657,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
         <v>14</v>
       </c>
@@ -3703,7 +3701,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="57" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
         <v>14</v>
       </c>
@@ -3747,7 +3745,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="58" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
         <v>14</v>
       </c>
@@ -3791,7 +3789,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
         <v>15</v>
       </c>
@@ -3835,7 +3833,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
         <v>15</v>
       </c>
@@ -3879,7 +3877,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
         <v>15</v>
       </c>
@@ -3923,7 +3921,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
         <v>15</v>
       </c>
@@ -3967,7 +3965,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="5">
         <v>15</v>
       </c>
@@ -4011,7 +4009,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="64" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
         <v>16</v>
       </c>
@@ -4055,7 +4053,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="65" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="5">
         <v>16</v>
       </c>
@@ -4099,7 +4097,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="66" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="5">
         <v>16</v>
       </c>
@@ -4143,7 +4141,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="67" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="5">
         <v>16</v>
       </c>
@@ -4187,7 +4185,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="68" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="5">
         <v>16</v>
       </c>
@@ -4231,7 +4229,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="69" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
         <v>16</v>
       </c>
@@ -4275,7 +4273,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="5">
         <v>17</v>
       </c>
@@ -4319,7 +4317,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="5">
         <v>18</v>
       </c>
@@ -4363,7 +4361,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="5">
         <v>18</v>
       </c>
@@ -4407,7 +4405,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="5">
         <v>18</v>
       </c>
@@ -4451,7 +4449,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="5">
         <v>18</v>
       </c>
@@ -4495,7 +4493,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="5">
         <v>18</v>
       </c>
@@ -4539,7 +4537,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="5">
         <v>19</v>
       </c>
@@ -4583,7 +4581,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="77" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="5">
         <v>20</v>
       </c>
@@ -4627,7 +4625,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="78" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="5">
         <v>20</v>
       </c>
@@ -4671,7 +4669,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="79" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="5">
         <v>20</v>
       </c>
@@ -4715,7 +4713,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="80" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="5">
         <v>20</v>
       </c>
@@ -4759,7 +4757,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="81" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="5">
         <v>20</v>
       </c>
@@ -4803,7 +4801,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="82" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="5">
         <v>20</v>
       </c>
@@ -4847,7 +4845,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="5">
         <v>21</v>
       </c>
@@ -4891,7 +4889,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" s="5">
         <v>21</v>
       </c>
@@ -4935,7 +4933,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="5">
         <v>21</v>
       </c>
@@ -4979,7 +4977,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" s="5">
         <v>21</v>
       </c>
@@ -5023,7 +5021,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" s="5">
         <v>21</v>
       </c>
@@ -5067,7 +5065,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" s="5">
         <v>21</v>
       </c>
@@ -5111,7 +5109,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" s="5">
         <v>21</v>
       </c>
@@ -5155,7 +5153,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" s="5">
         <v>21</v>
       </c>
@@ -5199,7 +5197,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" s="5">
         <v>22</v>
       </c>
@@ -5243,7 +5241,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" s="5">
         <v>22</v>
       </c>
@@ -5287,7 +5285,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="5">
         <v>22</v>
       </c>
@@ -5331,7 +5329,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" s="5">
         <v>22</v>
       </c>
@@ -5375,7 +5373,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="5">
         <v>22</v>
       </c>
@@ -5419,7 +5417,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" s="5">
         <v>22</v>
       </c>
@@ -5463,7 +5461,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="5">
         <v>23</v>
       </c>
@@ -5507,7 +5505,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="5">
         <v>23</v>
       </c>
@@ -5551,7 +5549,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="5">
         <v>23</v>
       </c>
@@ -5595,7 +5593,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" s="5">
         <v>24</v>
       </c>
@@ -5639,7 +5637,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" s="5">
         <v>24</v>
       </c>
@@ -5683,7 +5681,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" s="5">
         <v>24</v>
       </c>
@@ -5727,7 +5725,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="5">
         <v>25</v>
       </c>
@@ -5767,7 +5765,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" s="5">
         <v>27</v>
       </c>
@@ -5811,7 +5809,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" s="5">
         <v>27</v>
       </c>
@@ -5855,7 +5853,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="106" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" s="5">
         <v>28</v>
       </c>
@@ -5899,7 +5897,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="107" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="5">
         <v>28</v>
       </c>
@@ -5943,7 +5941,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="108" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="5">
         <v>28</v>
       </c>
@@ -5987,7 +5985,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="109" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" s="5">
         <v>28</v>
       </c>
@@ -6031,7 +6029,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="110" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="5">
         <v>28</v>
       </c>
@@ -6075,7 +6073,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="111" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="5">
         <v>28</v>
       </c>
@@ -6119,7 +6117,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="112" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A112" s="5">
         <v>28</v>
       </c>
@@ -6163,7 +6161,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="113" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="5">
         <v>28</v>
       </c>
@@ -6207,7 +6205,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="114" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A114" s="5">
         <v>28</v>
       </c>
@@ -6251,7 +6249,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115" s="5">
         <v>29</v>
       </c>
@@ -6295,7 +6293,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116" s="5">
         <v>29</v>
       </c>
@@ -6339,7 +6337,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117" s="5">
         <v>29</v>
       </c>
@@ -6383,7 +6381,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118" s="5">
         <v>29</v>
       </c>
@@ -6427,7 +6425,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119" s="5">
         <v>29</v>
       </c>
@@ -6471,7 +6469,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120" s="5">
         <v>29</v>
       </c>
@@ -6515,7 +6513,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="121" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A121" s="5">
         <v>31</v>
       </c>
@@ -6559,7 +6557,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122" s="5">
         <v>32</v>
       </c>
@@ -6603,7 +6601,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123" s="5">
         <v>32</v>
       </c>
@@ -6647,7 +6645,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" s="5">
         <v>33</v>
       </c>
@@ -6691,7 +6689,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="125" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A125" s="5">
         <v>34</v>
       </c>
@@ -6735,7 +6733,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126" s="5">
         <v>35</v>
       </c>
@@ -6779,7 +6777,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A127" s="5">
         <v>35</v>
       </c>
@@ -6823,7 +6821,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A128" s="5">
         <v>35</v>
       </c>
@@ -6867,7 +6865,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129" s="5">
         <v>36</v>
       </c>
@@ -6911,7 +6909,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130" s="5">
         <v>36</v>
       </c>
@@ -6955,7 +6953,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131" s="5">
         <v>36</v>
       </c>
@@ -6999,18 +6997,22 @@
         <v>93</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A132" s="5">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B132" s="5">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C132" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="D132" s="5"/>
-      <c r="E132" s="5"/>
+      <c r="D132" s="5">
+        <v>304</v>
+      </c>
+      <c r="E132" s="5">
+        <v>4</v>
+      </c>
       <c r="F132" s="5" t="s">
         <v>15</v>
       </c>
@@ -7018,10 +7020,10 @@
         <v>16</v>
       </c>
       <c r="H132" s="5" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="I132" s="5" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="J132" s="5" t="s">
         <v>17</v>
@@ -7030,16 +7032,16 @@
         <v>19</v>
       </c>
       <c r="L132" s="6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M132" s="6" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="N132" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="133" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A133" s="5">
         <v>38</v>
       </c>
@@ -7047,13 +7049,13 @@
         <v>39</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D133" s="5">
-        <v>304</v>
+        <v>234</v>
       </c>
       <c r="E133" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F133" s="5" t="s">
         <v>15</v>
@@ -7083,21 +7085,21 @@
         <v>22</v>
       </c>
     </row>
-    <row r="134" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A134" s="5">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B134" s="5">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C134" s="6" t="s">
         <v>95</v>
       </c>
       <c r="D134" s="5">
-        <v>234</v>
+        <v>46</v>
       </c>
       <c r="E134" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F134" s="5" t="s">
         <v>15</v>
@@ -7118,30 +7120,30 @@
         <v>19</v>
       </c>
       <c r="L134" s="6" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="M134" s="6" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="N134" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135" s="5">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B135" s="5">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C135" s="6" t="s">
         <v>96</v>
       </c>
       <c r="D135" s="5">
-        <v>46</v>
+        <v>218</v>
       </c>
       <c r="E135" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F135" s="5" t="s">
         <v>15</v>
@@ -7150,7 +7152,7 @@
         <v>16</v>
       </c>
       <c r="H135" s="5" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="I135" s="5" t="s">
         <v>31</v>
@@ -7162,16 +7164,16 @@
         <v>19</v>
       </c>
       <c r="L135" s="6" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="M135" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N135" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A136" s="5">
         <v>40</v>
       </c>
@@ -7179,13 +7181,13 @@
         <v>41</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D136" s="5">
-        <v>218</v>
+        <v>285</v>
       </c>
       <c r="E136" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F136" s="5" t="s">
         <v>15</v>
@@ -7215,7 +7217,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A137" s="5">
         <v>40</v>
       </c>
@@ -7223,13 +7225,13 @@
         <v>41</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D137" s="5">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="E137" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F137" s="5" t="s">
         <v>15</v>
@@ -7259,7 +7261,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A138" s="5">
         <v>40</v>
       </c>
@@ -7267,10 +7269,10 @@
         <v>41</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D138" s="5">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E138" s="5">
         <v>5</v>
@@ -7303,7 +7305,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A139" s="5">
         <v>40</v>
       </c>
@@ -7311,10 +7313,10 @@
         <v>41</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D139" s="5">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="E139" s="5">
         <v>5</v>
@@ -7347,7 +7349,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A140" s="5">
         <v>40</v>
       </c>
@@ -7355,10 +7357,10 @@
         <v>41</v>
       </c>
       <c r="C140" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D140" s="5">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E140" s="5">
         <v>5</v>
@@ -7391,7 +7393,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A141" s="5">
         <v>40</v>
       </c>
@@ -7399,13 +7401,13 @@
         <v>41</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D141" s="5">
-        <v>310</v>
+        <v>14</v>
       </c>
       <c r="E141" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F141" s="5" t="s">
         <v>15</v>
@@ -7435,7 +7437,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A142" s="5">
         <v>40</v>
       </c>
@@ -7443,13 +7445,13 @@
         <v>41</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D142" s="5">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E142" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F142" s="5" t="s">
         <v>15</v>
@@ -7479,7 +7481,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A143" s="5">
         <v>40</v>
       </c>
@@ -7487,13 +7489,13 @@
         <v>41</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D143" s="5">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E143" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F143" s="5" t="s">
         <v>15</v>
@@ -7523,7 +7525,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A144" s="5">
         <v>40</v>
       </c>
@@ -7531,10 +7533,10 @@
         <v>41</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D144" s="5">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="E144" s="5">
         <v>5</v>
@@ -7567,7 +7569,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A145" s="5">
         <v>40</v>
       </c>
@@ -7575,10 +7577,10 @@
         <v>41</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D145" s="5">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="E145" s="5">
         <v>5</v>
@@ -7611,7 +7613,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A146" s="5">
         <v>40</v>
       </c>
@@ -7619,13 +7621,13 @@
         <v>41</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D146" s="5">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E146" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F146" s="5" t="s">
         <v>15</v>
@@ -7655,7 +7657,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A147" s="5">
         <v>40</v>
       </c>
@@ -7663,10 +7665,10 @@
         <v>41</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D147" s="5">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E147" s="5">
         <v>4</v>
@@ -7699,7 +7701,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A148" s="5">
         <v>40</v>
       </c>
@@ -7707,13 +7709,13 @@
         <v>41</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D148" s="5">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="E148" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F148" s="5" t="s">
         <v>15</v>
@@ -7743,7 +7745,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A149" s="5">
         <v>40</v>
       </c>
@@ -7751,10 +7753,10 @@
         <v>41</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D149" s="5">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E149" s="5">
         <v>5</v>
@@ -7787,7 +7789,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A150" s="5">
         <v>40</v>
       </c>
@@ -7795,10 +7797,10 @@
         <v>41</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D150" s="5">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E150" s="5">
         <v>5</v>
@@ -7831,7 +7833,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A151" s="5">
         <v>40</v>
       </c>
@@ -7839,10 +7841,10 @@
         <v>41</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D151" s="5">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E151" s="5">
         <v>5</v>
@@ -7875,7 +7877,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A152" s="5">
         <v>40</v>
       </c>
@@ -7883,10 +7885,10 @@
         <v>41</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D152" s="5">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="E152" s="5">
         <v>5</v>
@@ -7919,7 +7921,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A153" s="5">
         <v>40</v>
       </c>
@@ -7927,13 +7929,13 @@
         <v>41</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D153" s="5">
-        <v>92</v>
+        <v>121</v>
       </c>
       <c r="E153" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F153" s="5" t="s">
         <v>15</v>
@@ -7963,7 +7965,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A154" s="5">
         <v>40</v>
       </c>
@@ -7971,10 +7973,10 @@
         <v>41</v>
       </c>
       <c r="C154" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D154" s="5">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E154" s="5">
         <v>4</v>
@@ -8007,7 +8009,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A155" s="5">
         <v>40</v>
       </c>
@@ -8015,13 +8017,13 @@
         <v>41</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D155" s="5">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="E155" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F155" s="5" t="s">
         <v>15</v>
@@ -8051,7 +8053,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A156" s="5">
         <v>40</v>
       </c>
@@ -8059,10 +8061,10 @@
         <v>41</v>
       </c>
       <c r="C156" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D156" s="5">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="E156" s="5">
         <v>5</v>
@@ -8095,7 +8097,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A157" s="5">
         <v>40</v>
       </c>
@@ -8103,13 +8105,13 @@
         <v>41</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D157" s="5">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="E157" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F157" s="5" t="s">
         <v>15</v>
@@ -8139,7 +8141,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A158" s="5">
         <v>40</v>
       </c>
@@ -8147,13 +8149,13 @@
         <v>41</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D158" s="5">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E158" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F158" s="5" t="s">
         <v>15</v>
@@ -8183,7 +8185,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A159" s="5">
         <v>40</v>
       </c>
@@ -8191,10 +8193,10 @@
         <v>41</v>
       </c>
       <c r="C159" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D159" s="5">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="E159" s="5">
         <v>5</v>
@@ -8227,7 +8229,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A160" s="5">
         <v>40</v>
       </c>
@@ -8235,13 +8237,13 @@
         <v>41</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D160" s="5">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="E160" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F160" s="5" t="s">
         <v>15</v>
@@ -8271,7 +8273,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A161" s="5">
         <v>40</v>
       </c>
@@ -8279,13 +8281,13 @@
         <v>41</v>
       </c>
       <c r="C161" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D161" s="5">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E161" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F161" s="5" t="s">
         <v>15</v>
@@ -8315,7 +8317,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A162" s="5">
         <v>40</v>
       </c>
@@ -8323,13 +8325,13 @@
         <v>41</v>
       </c>
       <c r="C162" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D162" s="5">
-        <v>159</v>
+        <v>66</v>
       </c>
       <c r="E162" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F162" s="5" t="s">
         <v>15</v>
@@ -8359,7 +8361,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A163" s="5">
         <v>40</v>
       </c>
@@ -8367,10 +8369,10 @@
         <v>41</v>
       </c>
       <c r="C163" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D163" s="5">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E163" s="5">
         <v>5</v>
@@ -8403,7 +8405,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A164" s="5">
         <v>40</v>
       </c>
@@ -8411,13 +8413,13 @@
         <v>41</v>
       </c>
       <c r="C164" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D164" s="5">
-        <v>60</v>
+        <v>164</v>
       </c>
       <c r="E164" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F164" s="5" t="s">
         <v>15</v>
@@ -8447,7 +8449,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A165" s="5">
         <v>40</v>
       </c>
@@ -8455,13 +8457,13 @@
         <v>41</v>
       </c>
       <c r="C165" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D165" s="5">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E165" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F165" s="5" t="s">
         <v>15</v>
@@ -8491,7 +8493,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A166" s="5">
         <v>40</v>
       </c>
@@ -8499,10 +8501,10 @@
         <v>41</v>
       </c>
       <c r="C166" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D166" s="5">
-        <v>165</v>
+        <v>58</v>
       </c>
       <c r="E166" s="5">
         <v>5</v>
@@ -8535,18 +8537,18 @@
         <v>53</v>
       </c>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A167" s="5">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B167" s="5">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C167" s="6" t="s">
         <v>97</v>
       </c>
       <c r="D167" s="5">
-        <v>58</v>
+        <v>316</v>
       </c>
       <c r="E167" s="5">
         <v>5</v>
@@ -8558,10 +8560,10 @@
         <v>16</v>
       </c>
       <c r="H167" s="5" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="I167" s="5" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="J167" s="5" t="s">
         <v>17</v>
@@ -8576,10 +8578,10 @@
         <v>27</v>
       </c>
       <c r="N167" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A168" s="5">
         <v>41</v>
       </c>
@@ -8587,10 +8589,10 @@
         <v>42</v>
       </c>
       <c r="C168" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D168" s="5">
-        <v>316</v>
+        <v>57</v>
       </c>
       <c r="E168" s="5">
         <v>5</v>
@@ -8623,7 +8625,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A169" s="5">
         <v>41</v>
       </c>
@@ -8631,10 +8633,10 @@
         <v>42</v>
       </c>
       <c r="C169" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D169" s="5">
-        <v>57</v>
+        <v>168</v>
       </c>
       <c r="E169" s="5">
         <v>5</v>
@@ -8667,7 +8669,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A170" s="5">
         <v>41</v>
       </c>
@@ -8675,10 +8677,10 @@
         <v>42</v>
       </c>
       <c r="C170" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D170" s="5">
-        <v>168</v>
+        <v>314</v>
       </c>
       <c r="E170" s="5">
         <v>5</v>
@@ -8711,7 +8713,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A171" s="5">
         <v>41</v>
       </c>
@@ -8719,10 +8721,10 @@
         <v>42</v>
       </c>
       <c r="C171" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D171" s="5">
-        <v>314</v>
+        <v>63</v>
       </c>
       <c r="E171" s="5">
         <v>5</v>
@@ -8755,18 +8757,18 @@
         <v>49</v>
       </c>
     </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A172" s="5">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B172" s="5">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C172" s="6" t="s">
         <v>98</v>
       </c>
       <c r="D172" s="5">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="E172" s="5">
         <v>5</v>
@@ -8778,28 +8780,28 @@
         <v>16</v>
       </c>
       <c r="H172" s="5" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="I172" s="5" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="J172" s="5" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="K172" s="5" t="s">
         <v>19</v>
       </c>
       <c r="L172" s="6" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="M172" s="6" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="N172" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A173" s="5">
         <v>42</v>
       </c>
@@ -8807,13 +8809,13 @@
         <v>43</v>
       </c>
       <c r="C173" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D173" s="5">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="E173" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F173" s="5" t="s">
         <v>15</v>
@@ -8840,10 +8842,10 @@
         <v>51</v>
       </c>
       <c r="N173" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A174" s="5">
         <v>42</v>
       </c>
@@ -8851,13 +8853,13 @@
         <v>43</v>
       </c>
       <c r="C174" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D174" s="5">
-        <v>42</v>
+        <v>309</v>
       </c>
       <c r="E174" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F174" s="5" t="s">
         <v>15</v>
@@ -8884,27 +8886,27 @@
         <v>51</v>
       </c>
       <c r="N174" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A175" s="5">
+        <v>43</v>
+      </c>
+      <c r="B175" s="5">
+        <v>44</v>
+      </c>
+      <c r="C175" s="6" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A175" s="5">
-        <v>42</v>
-      </c>
-      <c r="B175" s="5">
-        <v>43</v>
-      </c>
-      <c r="C175" s="6" t="s">
-        <v>99</v>
-      </c>
       <c r="D175" s="5">
-        <v>309</v>
+        <v>58</v>
       </c>
       <c r="E175" s="5">
         <v>5</v>
       </c>
       <c r="F175" s="5" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="G175" s="5" t="s">
         <v>16</v>
@@ -8913,25 +8915,25 @@
         <v>36</v>
       </c>
       <c r="I175" s="5" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J175" s="5" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="K175" s="5" t="s">
         <v>19</v>
       </c>
       <c r="L175" s="6" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="M175" s="6" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="N175" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A176" s="5">
         <v>43</v>
       </c>
@@ -8939,10 +8941,10 @@
         <v>44</v>
       </c>
       <c r="C176" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D176" s="5">
-        <v>58</v>
+        <v>211</v>
       </c>
       <c r="E176" s="5">
         <v>5</v>
@@ -8975,7 +8977,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A177" s="5">
         <v>43</v>
       </c>
@@ -8983,10 +8985,10 @@
         <v>44</v>
       </c>
       <c r="C177" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D177" s="5">
-        <v>211</v>
+        <v>13</v>
       </c>
       <c r="E177" s="5">
         <v>5</v>
@@ -9019,7 +9021,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A178" s="5">
         <v>43</v>
       </c>
@@ -9027,10 +9029,10 @@
         <v>44</v>
       </c>
       <c r="C178" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D178" s="5">
-        <v>13</v>
+        <v>305</v>
       </c>
       <c r="E178" s="5">
         <v>5</v>
@@ -9063,18 +9065,18 @@
         <v>64</v>
       </c>
     </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A179" s="5">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B179" s="5">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C179" s="6" t="s">
         <v>101</v>
       </c>
       <c r="D179" s="5">
-        <v>305</v>
+        <v>50</v>
       </c>
       <c r="E179" s="5">
         <v>5</v>
@@ -9086,28 +9088,28 @@
         <v>16</v>
       </c>
       <c r="H179" s="5" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="I179" s="5" t="s">
         <v>31</v>
       </c>
       <c r="J179" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K179" s="5" t="s">
         <v>19</v>
       </c>
       <c r="L179" s="6" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="M179" s="6" t="s">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="N179" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A180" s="5">
         <v>44</v>
       </c>
@@ -9115,10 +9117,10 @@
         <v>45</v>
       </c>
       <c r="C180" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D180" s="5">
-        <v>50</v>
+        <v>116</v>
       </c>
       <c r="E180" s="5">
         <v>5</v>
@@ -9145,13 +9147,13 @@
         <v>42</v>
       </c>
       <c r="M180" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N180" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A181" s="5">
         <v>44</v>
       </c>
@@ -9159,10 +9161,10 @@
         <v>45</v>
       </c>
       <c r="C181" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D181" s="5">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="E181" s="5">
         <v>5</v>
@@ -9189,24 +9191,24 @@
         <v>42</v>
       </c>
       <c r="M181" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N181" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A182" s="5">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B182" s="5">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C182" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D182" s="5">
-        <v>13</v>
+        <v>311</v>
       </c>
       <c r="E182" s="5">
         <v>5</v>
@@ -9218,13 +9220,13 @@
         <v>16</v>
       </c>
       <c r="H182" s="5" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I182" s="5" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="J182" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K182" s="5" t="s">
         <v>19</v>
@@ -9233,13 +9235,13 @@
         <v>42</v>
       </c>
       <c r="M182" s="6" t="s">
-        <v>103</v>
+        <v>57</v>
       </c>
       <c r="N182" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A183" s="5">
         <v>45</v>
       </c>
@@ -9247,10 +9249,10 @@
         <v>46</v>
       </c>
       <c r="C183" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D183" s="5">
-        <v>311</v>
+        <v>149</v>
       </c>
       <c r="E183" s="5">
         <v>5</v>
@@ -9283,7 +9285,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A184" s="5">
         <v>45</v>
       </c>
@@ -9291,10 +9293,10 @@
         <v>46</v>
       </c>
       <c r="C184" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D184" s="5">
-        <v>149</v>
+        <v>84</v>
       </c>
       <c r="E184" s="5">
         <v>5</v>
@@ -9327,7 +9329,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A185" s="5">
         <v>45</v>
       </c>
@@ -9335,10 +9337,10 @@
         <v>46</v>
       </c>
       <c r="C185" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D185" s="5">
-        <v>84</v>
+        <v>33</v>
       </c>
       <c r="E185" s="5">
         <v>5</v>
@@ -9371,7 +9373,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A186" s="5">
         <v>45</v>
       </c>
@@ -9379,10 +9381,10 @@
         <v>46</v>
       </c>
       <c r="C186" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D186" s="5">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="E186" s="5">
         <v>5</v>
@@ -9415,7 +9417,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A187" s="5">
         <v>45</v>
       </c>
@@ -9423,13 +9425,13 @@
         <v>46</v>
       </c>
       <c r="C187" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D187" s="5">
-        <v>21</v>
+        <v>159</v>
       </c>
       <c r="E187" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F187" s="5" t="s">
         <v>30</v>
@@ -9459,21 +9461,21 @@
         <v>44</v>
       </c>
     </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A188" s="5">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B188" s="5">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C188" s="6" t="s">
         <v>104</v>
       </c>
       <c r="D188" s="5">
-        <v>159</v>
+        <v>12</v>
       </c>
       <c r="E188" s="5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F188" s="5" t="s">
         <v>30</v>
@@ -9482,28 +9484,28 @@
         <v>16</v>
       </c>
       <c r="H188" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I188" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J188" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I188" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J188" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="K188" s="5" t="s">
         <v>19</v>
       </c>
       <c r="L188" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="M188" s="6" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="N188" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A189" s="5">
         <v>46</v>
       </c>
@@ -9511,10 +9513,10 @@
         <v>47</v>
       </c>
       <c r="C189" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D189" s="5">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="E189" s="5">
         <v>5</v>
@@ -9547,7 +9549,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A190" s="5">
         <v>46</v>
       </c>
@@ -9555,13 +9557,13 @@
         <v>47</v>
       </c>
       <c r="C190" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D190" s="5">
-        <v>58</v>
+        <v>175</v>
       </c>
       <c r="E190" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F190" s="5" t="s">
         <v>30</v>
@@ -9591,7 +9593,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A191" s="5">
         <v>46</v>
       </c>
@@ -9599,13 +9601,13 @@
         <v>47</v>
       </c>
       <c r="C191" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D191" s="5">
-        <v>175</v>
+        <v>60</v>
       </c>
       <c r="E191" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F191" s="5" t="s">
         <v>30</v>
@@ -9635,7 +9637,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A192" s="5">
         <v>46</v>
       </c>
@@ -9643,13 +9645,13 @@
         <v>47</v>
       </c>
       <c r="C192" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D192" s="5">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="E192" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F192" s="5" t="s">
         <v>30</v>
@@ -9679,7 +9681,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A193" s="5">
         <v>46</v>
       </c>
@@ -9687,13 +9689,13 @@
         <v>47</v>
       </c>
       <c r="C193" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D193" s="5">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="E193" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F193" s="5" t="s">
         <v>30</v>
@@ -9723,7 +9725,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A194" s="5">
         <v>46</v>
       </c>
@@ -9731,13 +9733,13 @@
         <v>47</v>
       </c>
       <c r="C194" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D194" s="5">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="E194" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F194" s="5" t="s">
         <v>30</v>
@@ -9767,7 +9769,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A195" s="5">
         <v>46</v>
       </c>
@@ -9775,13 +9777,13 @@
         <v>47</v>
       </c>
       <c r="C195" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D195" s="5">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="E195" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F195" s="5" t="s">
         <v>30</v>
@@ -9811,7 +9813,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A196" s="5">
         <v>46</v>
       </c>
@@ -9819,13 +9821,13 @@
         <v>47</v>
       </c>
       <c r="C196" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D196" s="5">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="E196" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F196" s="5" t="s">
         <v>30</v>
@@ -9855,7 +9857,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A197" s="5">
         <v>46</v>
       </c>
@@ -9863,10 +9865,10 @@
         <v>47</v>
       </c>
       <c r="C197" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D197" s="5">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="E197" s="5">
         <v>4</v>
@@ -9899,7 +9901,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A198" s="5">
         <v>46</v>
       </c>
@@ -9907,10 +9909,10 @@
         <v>47</v>
       </c>
       <c r="C198" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D198" s="5">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E198" s="5">
         <v>4</v>
@@ -9943,7 +9945,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A199" s="5">
         <v>46</v>
       </c>
@@ -9951,13 +9953,13 @@
         <v>47</v>
       </c>
       <c r="C199" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D199" s="5">
-        <v>44</v>
+        <v>130</v>
       </c>
       <c r="E199" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F199" s="5" t="s">
         <v>30</v>
@@ -9987,7 +9989,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A200" s="5">
         <v>46</v>
       </c>
@@ -9995,10 +9997,10 @@
         <v>47</v>
       </c>
       <c r="C200" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D200" s="5">
-        <v>130</v>
+        <v>294</v>
       </c>
       <c r="E200" s="5">
         <v>5</v>
@@ -10031,7 +10033,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A201" s="5">
         <v>46</v>
       </c>
@@ -10039,10 +10041,10 @@
         <v>47</v>
       </c>
       <c r="C201" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D201" s="5">
-        <v>294</v>
+        <v>316</v>
       </c>
       <c r="E201" s="5">
         <v>5</v>
@@ -10075,7 +10077,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A202" s="5">
         <v>46</v>
       </c>
@@ -10083,10 +10085,10 @@
         <v>47</v>
       </c>
       <c r="C202" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D202" s="5">
-        <v>316</v>
+        <v>168</v>
       </c>
       <c r="E202" s="5">
         <v>5</v>
@@ -10119,7 +10121,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A203" s="5">
         <v>46</v>
       </c>
@@ -10127,13 +10129,13 @@
         <v>47</v>
       </c>
       <c r="C203" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D203" s="5">
-        <v>168</v>
+        <v>273</v>
       </c>
       <c r="E203" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F203" s="5" t="s">
         <v>30</v>
@@ -10163,18 +10165,18 @@
         <v>71</v>
       </c>
     </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A204" s="5">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B204" s="5">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C204" s="6" t="s">
         <v>105</v>
       </c>
       <c r="D204" s="5">
-        <v>273</v>
+        <v>46</v>
       </c>
       <c r="E204" s="5">
         <v>4</v>
@@ -10186,42 +10188,42 @@
         <v>16</v>
       </c>
       <c r="H204" s="5" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="I204" s="5" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="J204" s="5" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="K204" s="5" t="s">
         <v>19</v>
       </c>
       <c r="L204" s="6" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="M204" s="6" t="s">
-        <v>39</v>
+        <v>106</v>
       </c>
       <c r="N204" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="205" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="205" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A205" s="5">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B205" s="5">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C205" s="6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D205" s="5">
-        <v>46</v>
+        <v>316</v>
       </c>
       <c r="E205" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F205" s="5" t="s">
         <v>30</v>
@@ -10230,28 +10232,28 @@
         <v>16</v>
       </c>
       <c r="H205" s="5" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="I205" s="5" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="J205" s="5" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="K205" s="5" t="s">
         <v>19</v>
       </c>
       <c r="L205" s="6" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="M205" s="6" t="s">
-        <v>107</v>
+        <v>26</v>
       </c>
       <c r="N205" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A206" s="5">
         <v>48</v>
       </c>
@@ -10259,13 +10261,13 @@
         <v>49</v>
       </c>
       <c r="C206" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D206" s="5">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E206" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F206" s="5" t="s">
         <v>30</v>
@@ -10295,7 +10297,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A207" s="5">
         <v>48</v>
       </c>
@@ -10303,13 +10305,13 @@
         <v>49</v>
       </c>
       <c r="C207" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D207" s="5">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E207" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F207" s="5" t="s">
         <v>30</v>
@@ -10339,7 +10341,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A208" s="5">
         <v>48</v>
       </c>
@@ -10347,10 +10349,10 @@
         <v>49</v>
       </c>
       <c r="C208" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D208" s="5">
-        <v>314</v>
+        <v>33</v>
       </c>
       <c r="E208" s="5">
         <v>5</v>
@@ -10383,18 +10385,18 @@
         <v>49</v>
       </c>
     </row>
-    <row r="209" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A209" s="5">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B209" s="5">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C209" s="6" t="s">
         <v>108</v>
       </c>
       <c r="D209" s="5">
-        <v>33</v>
+        <v>304</v>
       </c>
       <c r="E209" s="5">
         <v>5</v>
@@ -10406,13 +10408,13 @@
         <v>16</v>
       </c>
       <c r="H209" s="5" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="I209" s="5" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="J209" s="5" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="K209" s="5" t="s">
         <v>19</v>
@@ -10421,13 +10423,13 @@
         <v>26</v>
       </c>
       <c r="M209" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N209" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="210" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A210" s="5">
         <v>49</v>
       </c>
@@ -10435,13 +10437,13 @@
         <v>50</v>
       </c>
       <c r="C210" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D210" s="5">
-        <v>304</v>
+        <v>48</v>
       </c>
       <c r="E210" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F210" s="5" t="s">
         <v>30</v>
@@ -10471,7 +10473,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="211" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A211" s="5">
         <v>49</v>
       </c>
@@ -10479,10 +10481,10 @@
         <v>50</v>
       </c>
       <c r="C211" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D211" s="5">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="E211" s="5">
         <v>4</v>
@@ -10515,7 +10517,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="212" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A212" s="5">
         <v>49</v>
       </c>
@@ -10523,13 +10525,13 @@
         <v>50</v>
       </c>
       <c r="C212" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D212" s="5">
-        <v>4</v>
+        <v>315</v>
       </c>
       <c r="E212" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F212" s="5" t="s">
         <v>30</v>
@@ -10559,51 +10561,51 @@
         <v>49</v>
       </c>
     </row>
-    <row r="213" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A213" s="5">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B213" s="5">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C213" s="6" t="s">
         <v>109</v>
       </c>
       <c r="D213" s="5">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="E213" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F213" s="5" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G213" s="5" t="s">
         <v>16</v>
       </c>
       <c r="H213" s="5" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="I213" s="5" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="J213" s="5" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="K213" s="5" t="s">
-        <v>19</v>
+        <v>110</v>
       </c>
       <c r="L213" s="6" t="s">
-        <v>26</v>
+        <v>111</v>
       </c>
       <c r="M213" s="6" t="s">
-        <v>27</v>
+        <v>112</v>
       </c>
       <c r="N213" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="214" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="214" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A214" s="5">
         <v>50</v>
       </c>
@@ -10611,13 +10613,13 @@
         <v>51</v>
       </c>
       <c r="C214" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D214" s="5">
-        <v>302</v>
+        <v>35</v>
       </c>
       <c r="E214" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F214" s="5" t="s">
         <v>15</v>
@@ -10635,19 +10637,19 @@
         <v>25</v>
       </c>
       <c r="K214" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="L214" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="L214" s="6" t="s">
+      <c r="M214" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="M214" s="6" t="s">
+      <c r="N214" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="N214" s="5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="215" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="215" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A215" s="5">
         <v>50</v>
       </c>
@@ -10655,10 +10657,10 @@
         <v>51</v>
       </c>
       <c r="C215" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D215" s="5">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="E215" s="5">
         <v>5</v>
@@ -10679,27 +10681,27 @@
         <v>25</v>
       </c>
       <c r="K215" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="L215" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="L215" s="6" t="s">
+      <c r="M215" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="M215" s="6" t="s">
+      <c r="N215" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="N215" s="5" t="s">
+    </row>
+    <row r="216" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A216" s="5">
+        <v>51</v>
+      </c>
+      <c r="B216" s="5">
+        <v>52</v>
+      </c>
+      <c r="C216" s="6" t="s">
         <v>114</v>
-      </c>
-    </row>
-    <row r="216" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A216" s="5">
-        <v>50</v>
-      </c>
-      <c r="B216" s="5">
-        <v>51</v>
-      </c>
-      <c r="C216" s="6" t="s">
-        <v>110</v>
       </c>
       <c r="D216" s="5">
         <v>82</v>
@@ -10708,75 +10710,31 @@
         <v>5</v>
       </c>
       <c r="F216" s="5" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="G216" s="5" t="s">
         <v>16</v>
       </c>
       <c r="H216" s="5" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="I216" s="5" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="J216" s="5" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="K216" s="5" t="s">
-        <v>111</v>
+        <v>19</v>
       </c>
       <c r="L216" s="6" t="s">
-        <v>112</v>
+        <v>60</v>
       </c>
       <c r="M216" s="6" t="s">
-        <v>113</v>
+        <v>43</v>
       </c>
       <c r="N216" s="5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="217" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A217" s="5">
-        <v>51</v>
-      </c>
-      <c r="B217" s="5">
-        <v>52</v>
-      </c>
-      <c r="C217" s="6" t="s">
         <v>115</v>
-      </c>
-      <c r="D217" s="5">
-        <v>82</v>
-      </c>
-      <c r="E217" s="5">
-        <v>5</v>
-      </c>
-      <c r="F217" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G217" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H217" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I217" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="J217" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="K217" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L217" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="M217" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="N217" s="5" t="s">
-        <v>116</v>
       </c>
     </row>
   </sheetData>
